--- a/test_data/RPProduct354APIs.xlsx
+++ b/test_data/RPProduct354APIs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSApp_AutoTest_janis\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSAPP_5api\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D556BA2-7381-4818-8BBF-DC93CCEDE999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4E5EE-E34C-448A-A6F6-E27539FD4915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D90D4049-E18D-4223-B876-5288D8845B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,32 +46,814 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:WT33/errMsg:此項服務必須有3GCAS_行動上網或BBNET_BlackBerry或3DVPA_企業MDVPN II(vpn2,internet,mms)之服務項目,方可申請!!}]","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫遊加價購申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:CW_PG_CHNG_WO_BOOK_QRY.PC_GET_WO_SVC_ITEM/errMsg:參數檢查:月租型服務代碼不可傳入空值","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+  </si>
+  <si>
+    <t>已申請服務項目 
+ANLMN : 國際漫遊數據服務
+WS906 : 國際漫遊上網計日型服務 1日
+WS907 : 國際漫遊上網計日型服務 3日
+WS908 : 國際漫遊上網計日型服務 5日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:WT33/errMsg:用戶已有此服務或申請累積次數超過上限！}]","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:CW_PG_CHNG_WO_BOOK_QRY.PC_GET_WO_SVC_ITEM/errMsg:參數檢查:月租型服務代碼不可傳入空值","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:WT33/errMsg:用戶沒有此服務存在，無法進行取消！}]","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:WT33/errMsg:用戶沒有此服務存在，無法進行取消！}]","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","reminder":["加價購效期與主方案同步： (1)主方案預設效期不因加購延長；(2)預設效期內總購買量用完，若為量到斷線方案，將提前結束效期；若為量到降速方案或三合一、共享型方案將降速至64kbps"],"api_type":"RP0046","ret_code":"0"}}</t>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","reminder":["加價購效期與主方案同步： (1)主方案預設效期不因加購延長；(2)預設效期內總購買量用完，若為量到斷線方案，將提前結束效期；若為量到降速方案或三合一、共享型方案將降速至64kbps"],"api_type":"RP0046","ret_code":"0"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_ANLMN申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_ANLMN取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_ANLMN再取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_ANLMN申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_ANLMN再申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_ANLMN取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_ANLMN再取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:WT33/errMsg:此項服務必須有3GCAS_行動上網或BBNET_BlackBerry或3DVPA_企業MDVPN II(vpn2,internet,mms)之服務項目,方可申請!!}]","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_WS906申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_WS906取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_WS906申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_WS906取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_WS907申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_WS907取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_WS907申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_WS907取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_WS908申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_WS908取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_WS908申裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_WS908取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_申裝帶空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_取消帶空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_申裝帶空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios_取消帶空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
   "token":"DEV",
   "os":"android",
   "ver":"9.13.3",
   "type":"RP0046",
-  "svc_item":"WS908",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
   "action":"A"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:WT33/errMsg:此項服務必須有3GCAS_行動上網或BBNET_BlackBerry或3DVPA_企業MDVPN II(vpn2,internet,mms)之服務項目,方可申請!!}]","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cs_app":{"uid":"82800","subscrid":"14796488","api_type":"RP0046","errMsg":"com.twm.cs.domain.exception.JDBCAPIException: errApi:WT33/errMsg:漫遊行動上網計日型5日(WS908)與漫遊上網計日型_日租型(WSE42)為互斥，不可同時申請!}]","ret_code":"9","errMsgDesc":"加購失敗：請確認您已生效漫遊上網方案；若有疑問，請洽188客服中心，海外請撥漫遊免費客服電話+886935120520"}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS908"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS908"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS908"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS908"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS907"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS907"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS907"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS907"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS906"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"WS906"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"ANLMN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> "svc_item":"ANLMN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"ios",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"ANLMN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"ANLMN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> "svc_item":"ANLMN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"D"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "token":"DEV",
+  "os":"android",
+  "ver":"9.13.3",
+  "type":"RP0046",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"svc_item":"ANLMN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,
+  "action":"A"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +883,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,8 +925,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,21 +1268,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCBABB-C1AD-483E-9ACA-C3BBA4EF43CA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="41" style="3" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="255.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,43 +1294,499 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="210.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
